--- a/medicine/Mort/Décès_en_1888/Décès_en_1888.xlsx
+++ b/medicine/Mort/Décès_en_1888/Décès_en_1888.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1888</t>
+          <t>Décès_en_1888</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1888</t>
+          <t>Décès_en_1888</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +536,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Federigo Pastoris, peintre et  graveur italien (° 1837).
-Théodore Semet, compositeur français (° 1824).
-Janvier
-5 janvier : Henri Herz, pianiste et compositeur français (° 6 janvier 1803).
-6 janvier[1] : Hermann Kanzler, baron, général, pro-ministre des armées du Saint-Siège (° 28 mars 1822).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Federigo Pastoris, peintre et  graveur italien (° 1837).
+Théodore Semet, compositeur français (° 1824).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 janvier : Henri Herz, pianiste et compositeur français (° 6 janvier 1803).
+6 janvier : Hermann Kanzler, baron, général, pro-ministre des armées du Saint-Siège (° 28 mars 1822).
 10 janvier : Giuseppe Palizzi, peintre italien (° 12 mars 1812).
 15 janvier : Jean-Baptiste André Godin, industriel et philanthrope français (° 26 janvier 1817).
 22 janvier : Eugène Labiche, dramaturge français (° 6 mai 1815).
 24 janvier : Louis Matout, peintre  français (° 19 mars 1811).
-? janvier : Louis Nicolas Matoux, peintre français (° 25 novembre 1816).
-Février
-2 février :
+? janvier : Louis Nicolas Matoux, peintre français (° 25 novembre 1816).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février :
 Félix-Auguste Clément, peintre français (° 20 mai 1826).
 César Malens, sénateur et député français (° 17 janvier 1829).
 5 février :
@@ -545,65 +630,439 @@
 13 février : Jean-Romary Grosjean, organiste, compositeur et éditeur français (° 12 janvier 1815).
 23 février : Louis, margrave de Bade, petit-fils du Kaiser Guillaume Ier d'Allemagne, fils cadet du grand-duc Frédéric Ier de Bade et de la princesse Louise de Prusse (°12 juin 1865),
 28 février : Punteret (Joaquín Sans y Almenar), matador espagnol (° 10 octobre 1853).
-29 février : Wilhelm Sponneck, homme politique danois (° 16 février 1815).
-Mars
-3 mars :  Moritz von Blanckenburg, homme politique  prussien (° 25 mai 1815).
+29 février : Wilhelm Sponneck, homme politique danois (° 16 février 1815).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars :  Moritz von Blanckenburg, homme politique  prussien (° 25 mai 1815).
 9 mars : Guillaume Ier, roi de Prusse et premier empereur allemand (° 22 mars 1797).
 21 mars : Thomas German Reed, compositeur, directeur musical, acteur, chanteur et directeur de théâtre anglais (° 27 juin 1817).
 25 mars : Louis des Isnards, peintre français (° 30 avril 1805).
-29 mars :  Charles-Valentin Alkan, pianiste et compositeur français (° 30 novembre 1813).
-Avril
-24 avril : Samuel D. Lecompte, homme politique américain (° 13 décembre 1814).
-Mai
-6 mai : Carlos Velasco Peinado, architecte espagnol (° 1842).
+29 mars :  Charles-Valentin Alkan, pianiste et compositeur français (° 30 novembre 1813).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>24 avril : Samuel D. Lecompte, homme politique américain (° 13 décembre 1814).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6 mai : Carlos Velasco Peinado, architecte espagnol (° 1842).
 18 mai : Pietro Aldi, peintre académique italien (° 26 juillet 1852).
 22 mai : Édouard Baille, peintre français (° 14 octobre 1814).
-30 mai : Louis Buvelot, peintre, lithographe, dessinateur, photographe et enseignant suisse (° 3 mars 1814).
-Juin
-7 juin : Paul Adolphe Rajon, peintre et graveur français (° 2 juillet 1843).
+30 mai : Louis Buvelot, peintre, lithographe, dessinateur, photographe et enseignant suisse (° 3 mars 1814).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7 juin : Paul Adolphe Rajon, peintre et graveur français (° 2 juillet 1843).
 14 juin : José Victorino Lastarria, avocat, écrivain, homme de lettres et homme politique chilien (° 23 mars 1817).
 15 juin : Frédéric III, roi de Prusse et deuxième empereur allemand (° 18 octobre 1831).
 18 juin : Luigi Mussini, peintre italien (° 19 décembre 1813).
-29 juin : Hannah Rachel Verbermacher, surnommée la Vierge de Ludomir (° 1806).
-Juillet
-8 juillet :
+29 juin : Hannah Rachel Verbermacher, surnommée la Vierge de Ludomir (° 1806).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8 juillet :
 Georges-Charles d'Amboise, auteur-compositeur et compositeur français (° 19 mai 1819).
 Auguste Vincent, compositeur, pianiste et bibliophile français (° 1er novembre 1829).
 10 juillet : Rafael Hernando, compositeur espagnol de zarzuelas (° 31 mai 1822).
 14 juillet :
 Antoine Étex, peintre et sculpteur français (° 20 mars 1808).
-Wladimir Swertschkoff, peintre russe de vitraux (° 4 septembre 1821).
-Août
-8 août : Friedrich Wilhelm Jähns, musicologue, professeur de chant et compositeur allemand (° 2 janvier 1809).
+Wladimir Swertschkoff, peintre russe de vitraux (° 4 septembre 1821).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8 août : Friedrich Wilhelm Jähns, musicologue, professeur de chant et compositeur allemand (° 2 janvier 1809).
 9 août : Isaac Strauss, chef d'orchestre, compositeur et collectionneur français (° 2 juin 1806).
 15 août : Amaranthe Roulliet, peintre de paysages et lithographe français (° 2 février 1810).
 16 août : John Stith Pemberton, pharmacien américain (° 8 juillet 1831).
 18 août : Franklin Távora, romancier, journaliste, homme politique, avocat et dramaturge brésilien (° 13 janvier 1842).
 24 août : Rudolf Clausius, physicien et mathématicien allemand (° 2 janvier 1822).
-28 août : Eugène Accard, peintre français (° 1824).
-Septembre
-9 septembre : Socrate Vorobiov, peintre paysagiste et graveur russe (° 12 février 1817).
+28 août : Eugène Accard, peintre français (° 1824).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9 septembre : Socrate Vorobiov, peintre paysagiste et graveur russe (° 12 février 1817).
 11 septembre :
 Nataniel Aguirre, avocat, diplomate, politique, écrivain et historien bolivien (° 10 octobre 1843).
 Domingo Faustino Sarmiento, intellectuel, écrivain, militaire et homme d’État espagnol puis argentin (° 15 février 1811).
-28 septembre : Thomas Gambier Parry, artiste, collectionneur d'art et philanthrope britannique (° 22 février 1816).
-Octobre
-9 octobre : Anthony Musgrave,  administrateur colonial britannique (° 31 août 1828).
+28 septembre : Thomas Gambier Parry, artiste, collectionneur d'art et philanthrope britannique (° 22 février 1816).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9 octobre : Anthony Musgrave,  administrateur colonial britannique (° 31 août 1828).
 14 octobre : Augustin Feyen-Perrin, peintre, graveur, illustrateur et  photographe français (° 12 avril 1826).
 16 octobre : John Wentworth, homme politique américain (° 5 mars 1815).
-24 octobre : François Musin, peintre de marine belge (° 4 octobre 1820).
-Novembre
-15 novembre :
+24 octobre : François Musin, peintre de marine belge (° 4 octobre 1820).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>15 novembre :
 Maximilien, duc en Bavière, membre de la maison de Bavière (° 4 décembre 1808)
 Félix de Tarteron, homme politique français (° 28 mars 1821).
 17 novembre : Jakob Dont, violoniste, pédagogue et compositeur autrichien (° 2 mars 1815).
-20 novembre : Michel-Jean Cazabon, peintre trinidadien (° 20 septembre 1813).
-Décembre
-11 décembre : Marià Obiols i Tramullas, compositeur d'opéras espagnol (° 26 septembre 1809).
+20 novembre : Michel-Jean Cazabon, peintre trinidadien (° 20 septembre 1813).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>11 décembre : Marià Obiols i Tramullas, compositeur d'opéras espagnol (° 26 septembre 1809).
 18 décembre : Eagle Woman, militante du peuple lakota (° 1820).
-23 décembre : Otto Weber, peintre allemand (° 1832).
-Date précise inconnue
-Timoci Tavanavanua, chef fidjien  (° 1847).</t>
+23 décembre : Otto Weber, peintre allemand (° 1832).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1888</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Timoci Tavanavanua, chef fidjien  (° 1847).</t>
         </is>
       </c>
     </row>
